--- a/Data/model_outputs_scenario_2/carbon_emissions_TEK_ren_intensities_and_share.xlsx
+++ b/Data/model_outputs_scenario_2/carbon_emissions_TEK_ren_intensities_and_share.xlsx
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>782364803.8216186</v>
+        <v>782364803.8216187</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>783110698.9997932</v>
+        <v>783110698.9997931</v>
       </c>
     </row>
     <row r="86">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>795980269.3971697</v>
+        <v>795980269.3971696</v>
       </c>
     </row>
     <row r="101">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>806479541.9688572</v>
+        <v>806479541.968857</v>
       </c>
     </row>
     <row r="111">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>812400554.9793993</v>
+        <v>812400554.9793994</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>813644462.568364</v>
+        <v>813644462.5683639</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>814908948.7618799</v>
+        <v>814908948.7618798</v>
       </c>
     </row>
     <row r="118">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>817503580.5145673</v>
+        <v>817503580.5145674</v>
       </c>
     </row>
     <row r="120">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>821565250.291736</v>
+        <v>821565250.2917359</v>
       </c>
     </row>
     <row r="123">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>824393363.9631999</v>
+        <v>824393363.9631997</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>825844692.2989675</v>
+        <v>825844692.2989676</v>
       </c>
     </row>
     <row r="126">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>838457067.532691</v>
+        <v>838457067.5326911</v>
       </c>
     </row>
     <row r="134">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>853121068.5402712</v>
+        <v>853121068.540271</v>
       </c>
     </row>
     <row r="142">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>863522630.0672005</v>
+        <v>863522630.0672003</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>865730059.8527288</v>
+        <v>865730059.852729</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>867982901.2680974</v>
+        <v>867982901.2680973</v>
       </c>
     </row>
     <row r="149">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>872625665.4393308</v>
+        <v>872625665.4393309</v>
       </c>
     </row>
     <row r="151">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>885086579.7021894</v>
+        <v>885086579.7021893</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>887733825.4995047</v>
+        <v>887733825.4995048</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>890434480.2748764</v>
+        <v>890434480.2748762</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>893190318.0552791</v>
+        <v>893190318.0552794</v>
       </c>
     </row>
     <row r="159">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>914113190.1646475</v>
+        <v>914113190.1646473</v>
       </c>
     </row>
     <row r="166">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>927445248.551844</v>
+        <v>927445248.5518439</v>
       </c>
     </row>
     <row r="170">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>934514575.6966735</v>
+        <v>934514575.6966734</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>938153975.8810929</v>
+        <v>938153975.881093</v>
       </c>
     </row>
     <row r="173">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>978623427.2357936</v>
+        <v>978623427.2357935</v>
       </c>
     </row>
     <row r="183">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>992303314.8809177</v>
+        <v>992303314.8809175</v>
       </c>
     </row>
     <row r="186">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1016805112.299583</v>
+        <v>1016805112.299584</v>
       </c>
     </row>
     <row r="191">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1072631726.494647</v>
+        <v>1072631726.494646</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1078743806.807538</v>
+        <v>1078743806.807539</v>
       </c>
     </row>
     <row r="202">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1131344113.46167</v>
+        <v>1131344113.461671</v>
       </c>
     </row>
     <row r="210">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1175339386.56335</v>
+        <v>1175339386.563351</v>
       </c>
     </row>
     <row r="216">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1333548626.417823</v>
+        <v>1333548626.417822</v>
       </c>
     </row>
     <row r="234">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1677202159.669115</v>
+        <v>1677202159.669116</v>
       </c>
     </row>
     <row r="262">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2024095395.263183</v>
+        <v>2024095395.263184</v>
       </c>
     </row>
     <row r="282">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2172630541.046234</v>
+        <v>2172630587.016551</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2195202568.039726</v>
+        <v>2195202613.914087</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2218132567.69612</v>
+        <v>2218132548.95095</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2241425755.34163</v>
+        <v>2241425785.879876</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2265089968.712788</v>
+        <v>2265089939.309135</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2289130818.859184</v>
+        <v>2289130847.156356</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2313555912.178155</v>
+        <v>2313555929.839059</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2338371976.459897</v>
+        <v>2338372002.628478</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2363586396.999091</v>
+        <v>2363586371.852705</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2389206210.743279</v>
+        <v>2389206234.895411</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2415238503.06987</v>
+        <v>2415238479.884185</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2441691137.186426</v>
+        <v>2441691114.762964</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2468571469.420456</v>
+        <v>2468571491.098036</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2495886728.326113</v>
+        <v>2495886710.264587</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2523645716.809175</v>
+        <v>2523645704.214952</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2546400567.036942</v>
+        <v>2546400617.534999</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2569546236.954984</v>
+        <v>2569546200.572038</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2593086988.279593</v>
+        <v>2593087107.377335</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2617030995.352879</v>
+        <v>2617030967.022103</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2641384857.365395</v>
+        <v>2641384873.081656</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2666155553.818872</v>
+        <v>2666155567.222009</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2691351027.714362</v>
+        <v>2691351128.92901</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2716977211.942406</v>
+        <v>2716977152.591394</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2743041836.356387</v>
+        <v>2743041870.076968</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2769552633.840871</v>
+        <v>2769552618.514616</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2796516333.595543</v>
+        <v>2796516352.569248</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2823940339.360229</v>
+        <v>2823940432.472719</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2851831959.893788</v>
+        <v>2851831950.071576</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2880198096.09194</v>
+        <v>2880198003.762954</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2909047327.505703</v>
+        <v>2909047186.324421</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2938385301.530753</v>
+        <v>2938385481.777076</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2968220692.29209</v>
+        <v>2968220656.499738</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2998560339.689236</v>
+        <v>2998560321.191434</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>3029410945.166169</v>
+        <v>3029410934.919864</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>3060780607.27517</v>
+        <v>3060780682.851708</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>3092676200.81977</v>
+        <v>3092676112.853263</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>3125104973.348914</v>
+        <v>3125105067.32334</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>3158073991.303914</v>
+        <v>3158073891.403633</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>3191590080.929497</v>
+        <v>3191589972.303948</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>3225660392.737016</v>
+        <v>3225660323.953387</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>3260291569.03734</v>
+        <v>3260291568.029444</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>3295490610.327085</v>
+        <v>3295490687.49042</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>3331263827.746922</v>
+        <v>3331263838.057208</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>3367617694.398912</v>
+        <v>3367617623.912165</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>3404558943.759155</v>
+        <v>3404558858.078577</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>3442093323.309217</v>
+        <v>3442093476.576828</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>3480226848.70162</v>
+        <v>3480226835.271096</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>3518965525.123105</v>
+        <v>3518965490.552847</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>3558314867.59569</v>
+        <v>3558315024.723565</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>3598280397.505101</v>
+        <v>3598280329.727941</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>3638866887.772318</v>
+        <v>3638866759.555077</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>3680079562.947671</v>
+        <v>3680079609.730718</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>3721923110.200481</v>
+        <v>3721923215.195311</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>3764402369.151394</v>
+        <v>3764402319.32584</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>3807520031.109432</v>
+        <v>3807520056.127044</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>3851281087.668241</v>
+        <v>3851281063.759189</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>3895688889.598819</v>
+        <v>3895688915.929703</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>3940746224.375845</v>
+        <v>3940746214.975054</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>3986456353.157678</v>
+        <v>3986456390.434831</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>4032821271.893241</v>
+        <v>4032821403.883348</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>4079843040.151624</v>
+        <v>4079843040.235625</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>4127523241.803892</v>
+        <v>4127523169.823137</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>4175864094.53136</v>
+        <v>4175863968.944108</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>4224864852.52757</v>
+        <v>4224864770.622562</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>4274527126.12744</v>
+        <v>4274527179.622235</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>4324850277.981051</v>
+        <v>4324850260.096718</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>4375834312.248681</v>
+        <v>4375834413.183093</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>4427477446.149879</v>
+        <v>4427477390.046805</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>4479778563.934928</v>
+        <v>4479778552.311748</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>4532735738.510417</v>
+        <v>4532735676.162994</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4586233234.635947</v>
+        <v>4586233295.149268</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>4640380313.861813</v>
+        <v>4640380369.820056</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>4695173213.762925</v>
+        <v>4695173294.494048</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>4750607534.909303</v>
+        <v>4750607477.421724</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>4806678722.66649</v>
+        <v>4806678927.037199</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>4863382041.567848</v>
+        <v>4863382027.512527</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>4920710779.673555</v>
+        <v>4920710879.21307</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>4978659379.502671</v>
+        <v>4978659323.646482</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>5037220560.43799</v>
+        <v>5037220586.903102</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>5096386890.300673</v>
+        <v>5096386930.53161</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>5156150583.025936</v>
+        <v>5156150513.335882</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>5216502320.746079</v>
+        <v>5216502300.425397</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>5277433105.55304</v>
+        <v>5277433053.048134</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>5338933258.135333</v>
+        <v>5338933187.44092</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>5400992176.314291</v>
+        <v>5400992226.372136</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>5463739041.162814</v>
+        <v>5463739006.274888</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>5527022976.331167</v>
+        <v>5527022884.442001</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5590831965.433931</v>
+        <v>5590831975.380327</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>5655152882.148703</v>
+        <v>5655152893.639124</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>5719973365.17812</v>
+        <v>5719973419.210793</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>5785278856.002374</v>
+        <v>5785278769.252213</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>5850984465.61317</v>
+        <v>5850984435.118055</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>5916295417.328278</v>
+        <v>5916295340.204314</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>5979197489.577053</v>
+        <v>5979197483.881579</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>6037339037.915498</v>
+        <v>6037339164.222242</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>6108150455.46169</v>
+        <v>6108150481.178586</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>6172259003.182371</v>
+        <v>6172259105.380854</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>6230305041.627041</v>
+        <v>6230305131.421076</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>6283580064.138159</v>
+        <v>6283579942.926331</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>6333640001.440085</v>
+        <v>6333639844.479136</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>6382021850.72366</v>
+        <v>6382021866.035202</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>6430084583.746548</v>
+        <v>6430084551.770821</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>6478934709.997238</v>
+        <v>6478934685.256804</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>6529415053.994326</v>
+        <v>6529414907.064226</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>6582123017.236556</v>
+        <v>6582123006.794172</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>6627517035.752489</v>
+        <v>6627517067.173801</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>6675339088.898189</v>
+        <v>6675339069.35022</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>6725743450.997625</v>
+        <v>6725743262.385123</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>6778783403.571157</v>
+        <v>6778783288.651787</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>6834439918.628033</v>
+        <v>6834439940.011152</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>6892639757.625679</v>
+        <v>6892639779.942222</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>6953271142.188751</v>
+        <v>6953271086.507366</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7016197429.136114</v>
+        <v>7016197473.441298</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>7081267421.981972</v>
+        <v>7081267339.82937</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>7148322004.450639</v>
+        <v>7148321917.346211</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>7166858631.128315</v>
+        <v>7166858714.526628</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>7187090626.5723</v>
+        <v>7187090523.240467</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>7208827322.545913</v>
+        <v>7208827346.0586</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>7231891504.783115</v>
+        <v>7231891499.763459</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>7256119214.188899</v>
+        <v>7256119129.667412</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>7281359043.179652</v>
+        <v>7281358950.47226</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>7307181251.529731</v>
+        <v>7307181232.778832</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>7330215105.1193</v>
+        <v>7330214957.789486</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>7342091291.557541</v>
+        <v>7342091155.213662</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>7333134731.444948</v>
+        <v>7333134716.370757</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>7302875559.516996</v>
+        <v>7302875482.089828</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>7244210345.618273</v>
+        <v>7244210233.475588</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>7160298491.129293</v>
+        <v>7160298431.74596</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>7056742317.961527</v>
+        <v>7056742431.144144</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>6940067055.971507</v>
+        <v>6940067087.03817</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>6816587696.28406</v>
+        <v>6816587779.0816</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>6691778837.492405</v>
+        <v>6691778828.012892</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>6570015316.895639</v>
+        <v>6570015194.530855</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>6454554844.926966</v>
+        <v>6454554827.957182</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>6347648953.830749</v>
+        <v>6347648982.366091</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>6250703064.85141</v>
+        <v>6250703024.056414</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>6164454418.987992</v>
+        <v>6164454416.870497</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>6089133477.878525</v>
+        <v>6089133446.401487</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>6024600796.829085</v>
+        <v>6024600821.62406</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>5970463258.732649</v>
+        <v>5970463164.765759</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>5926158715.788578</v>
+        <v>5926158776.534367</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>5891026648.273355</v>
+        <v>5891026575.56072</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>5823008661.135036</v>
+        <v>5823008605.743431</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>5762984241.283831</v>
+        <v>5762984139.097991</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>5710152615.819364</v>
+        <v>5710152540.955952</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>5663753741.488395</v>
+        <v>5663753676.138453</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>5623076841.92774</v>
+        <v>5623076769.795352</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>5587466213.06051</v>
+        <v>5587466194.022105</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>5556322466.473724</v>
+        <v>5556322433.075225</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>5529100650.020636</v>
+        <v>5529100526.55957</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>5505311041.216898</v>
+        <v>5505310982.092032</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>5484512574.932491</v>
+        <v>5484512473.649759</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>5405706868.382361</v>
+        <v>5405706719.983326</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>5329082874.222498</v>
+        <v>5329082749.012736</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>5254278867.4182</v>
+        <v>5254278731.976029</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>5180974866.508633</v>
+        <v>5180974736.755577</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>5108886656.051428</v>
+        <v>5108886618.823135</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>5037765861.297915</v>
+        <v>5037765882.518345</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>4967389535.73376</v>
+        <v>4967389418.545115</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>4897560943.093611</v>
+        <v>4897560924.122277</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>4828107525.822087</v>
+        <v>4828107496.287731</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>4758875900.944129</v>
+        <v>4758875790.157345</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>4689728838.280366</v>
+        <v>4689728799.621541</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>4620545701.919977</v>
+        <v>4620545712.022625</v>
       </c>
     </row>
     <row r="452">
